--- a/Outputs/Table 1 D.xlsx
+++ b/Outputs/Table 1 D.xlsx
@@ -112,19 +112,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.298325397887158E8</v>
+        <v>-2.1310987632717904E8</v>
       </c>
       <c r="C2" t="n">
-        <v>-7341858.084125261</v>
+        <v>-5.164240572691207E7</v>
       </c>
       <c r="D2" t="n">
-        <v>2.151488236204694E8</v>
+        <v>1.0982506487335604E8</v>
       </c>
       <c r="E2" t="n">
-        <v>4.376395053250604E8</v>
+        <v>2.712925354736225E8</v>
       </c>
       <c r="F2" t="n">
-        <v>6.601301870296559E8</v>
+        <v>4.3276000607389426E8</v>
       </c>
     </row>
     <row r="3">
@@ -132,19 +132,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.1519389758690467E8</v>
+        <v>-1.0328207875656138E8</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0729678411768587E8</v>
+        <v>5.818539184370559E7</v>
       </c>
       <c r="D3" t="n">
-        <v>3.297874658222805E8</v>
+        <v>2.196528624439737E8</v>
       </c>
       <c r="E3" t="n">
-        <v>5.522781475268716E8</v>
+        <v>3.811203330442401E8</v>
       </c>
       <c r="F3" t="n">
-        <v>7.747688292314671E8</v>
+        <v>5.425878036445119E8</v>
       </c>
     </row>
     <row r="4">
@@ -152,19 +152,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>1.1409239455667822E8</v>
+        <v>1.1638171473266701E8</v>
       </c>
       <c r="C4" t="n">
-        <v>3.365830762612688E8</v>
+        <v>2.77849185332934E8</v>
       </c>
       <c r="D4" t="n">
-        <v>5.590737579658633E8</v>
+        <v>4.393166559332021E8</v>
       </c>
       <c r="E4" t="n">
-        <v>7.815644396704545E8</v>
+        <v>6.007841265334686E8</v>
       </c>
       <c r="F4" t="n">
-        <v>1.00405512137505E9</v>
+        <v>7.622515971337404E8</v>
       </c>
     </row>
     <row r="5">
@@ -172,19 +172,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>3.89251799490245E8</v>
+        <v>3.799926966208639E8</v>
       </c>
       <c r="C5" t="n">
-        <v>6.117424811948355E8</v>
+        <v>5.41460167221131E8</v>
       </c>
       <c r="D5" t="n">
-        <v>8.342331628994302E8</v>
+        <v>7.02927637821399E8</v>
       </c>
       <c r="E5" t="n">
-        <v>1.0567238446040212E9</v>
+        <v>8.643951084216654E8</v>
       </c>
       <c r="F5" t="n">
-        <v>1.2792145263086166E9</v>
+        <v>1.0258625790219373E9</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/Table 1 D.xlsx
+++ b/Outputs/Table 1 D.xlsx
@@ -112,19 +112,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.2677507018487528E8</v>
+        <v>-1.2744460031553596E8</v>
       </c>
       <c r="C2" t="n">
-        <v>-5.9280373128577396E7</v>
+        <v>4.6787957524239056E7</v>
       </c>
       <c r="D2" t="n">
-        <v>1.0821432392771854E8</v>
+        <v>2.2102051536401013E8</v>
       </c>
       <c r="E2" t="n">
-        <v>2.7570902098401344E8</v>
+        <v>3.952530732037814E8</v>
       </c>
       <c r="F2" t="n">
-        <v>4.4320371804031426E8</v>
+        <v>5.69485631043557E8</v>
       </c>
     </row>
     <row r="3">
@@ -132,19 +132,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.1855804823673086E8</v>
+        <v>-1.9227578367391527E7</v>
       </c>
       <c r="C3" t="n">
-        <v>4.8936648819567E7</v>
+        <v>1.550049794723835E8</v>
       </c>
       <c r="D3" t="n">
-        <v>2.1643134587586296E8</v>
+        <v>3.2923753731215453E8</v>
       </c>
       <c r="E3" t="n">
-        <v>3.839260429321578E8</v>
+        <v>5.0347009515192586E8</v>
       </c>
       <c r="F3" t="n">
-        <v>5.514207399884586E8</v>
+        <v>6.777026529917016E8</v>
       </c>
     </row>
     <row r="4">
@@ -152,19 +152,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>9.788408997406647E7</v>
+        <v>1.9721455984340578E8</v>
       </c>
       <c r="C4" t="n">
-        <v>2.653787870303643E8</v>
+        <v>3.7144711768318075E8</v>
       </c>
       <c r="D4" t="n">
-        <v>4.328734840866602E8</v>
+        <v>5.456796755229517E8</v>
       </c>
       <c r="E4" t="n">
-        <v>6.003681811429552E8</v>
+        <v>7.199122333627231E8</v>
       </c>
       <c r="F4" t="n">
-        <v>7.678628781992561E8</v>
+        <v>8.941447912024989E8</v>
       </c>
     </row>
     <row r="5">
@@ -172,19 +172,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>3.576289024221763E8</v>
+        <v>4.569593722915156E8</v>
       </c>
       <c r="C5" t="n">
-        <v>5.251235994784742E8</v>
+        <v>6.311919301312906E8</v>
       </c>
       <c r="D5" t="n">
-        <v>6.926182965347701E8</v>
+        <v>8.054244879710617E8</v>
       </c>
       <c r="E5" t="n">
-        <v>8.601129935910649E8</v>
+        <v>9.79657045810833E8</v>
       </c>
       <c r="F5" t="n">
-        <v>1.0276076906473658E9</v>
+        <v>1.1538896036506088E9</v>
       </c>
     </row>
   </sheetData>
